--- a/data/output/seat_status_classroom_image7.xlsx
+++ b/data/output/seat_status_classroom_image7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,22 +477,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>504.4596557617188</v>
+        <v>504.468505859375</v>
       </c>
       <c r="B2" t="n">
-        <v>838.144287109375</v>
+        <v>838.191162109375</v>
       </c>
       <c r="C2" t="n">
-        <v>544.54541015625</v>
+        <v>544.5165405273438</v>
       </c>
       <c r="D2" t="n">
-        <v>868.3734741210938</v>
+        <v>868.3440551757812</v>
       </c>
       <c r="E2" t="n">
-        <v>524.5025634765625</v>
+        <v>524.4925537109375</v>
       </c>
       <c r="F2" t="n">
-        <v>853.2589111328125</v>
+        <v>853.267578125</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,22 +507,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1015.714111328125</v>
+        <v>1015.760437011719</v>
       </c>
       <c r="B3" t="n">
-        <v>850.9624633789062</v>
+        <v>850.939453125</v>
       </c>
       <c r="C3" t="n">
-        <v>1065.339599609375</v>
+        <v>1065.375244140625</v>
       </c>
       <c r="D3" t="n">
-        <v>884.0494384765625</v>
+        <v>883.9768676757812</v>
       </c>
       <c r="E3" t="n">
-        <v>1040.52685546875</v>
+        <v>1040.56787109375</v>
       </c>
       <c r="F3" t="n">
-        <v>867.5059814453125</v>
+        <v>867.4581298828125</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,22 +537,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>183.5766906738281</v>
+        <v>183.7319030761719</v>
       </c>
       <c r="B4" t="n">
-        <v>861.4573364257812</v>
+        <v>861.4856567382812</v>
       </c>
       <c r="C4" t="n">
-        <v>260.3435974121094</v>
+        <v>262.3431091308594</v>
       </c>
       <c r="D4" t="n">
-        <v>893.7546997070312</v>
+        <v>896.3513793945312</v>
       </c>
       <c r="E4" t="n">
-        <v>221.9601440429688</v>
+        <v>223.0375061035156</v>
       </c>
       <c r="F4" t="n">
-        <v>877.6060180664062</v>
+        <v>878.9185180664062</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,22 +567,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74.60539245605469</v>
+        <v>74.51502990722656</v>
       </c>
       <c r="B5" t="n">
-        <v>868.9954223632812</v>
+        <v>868.791259765625</v>
       </c>
       <c r="C5" t="n">
-        <v>157.7850494384766</v>
+        <v>158.4069213867188</v>
       </c>
       <c r="D5" t="n">
-        <v>896.27099609375</v>
+        <v>896.6768798828125</v>
       </c>
       <c r="E5" t="n">
-        <v>116.1952209472656</v>
+        <v>116.4609756469727</v>
       </c>
       <c r="F5" t="n">
-        <v>882.6331787109375</v>
+        <v>882.7340698242188</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -597,22 +597,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>569.6710205078125</v>
+        <v>569.85546875</v>
       </c>
       <c r="B6" t="n">
-        <v>865.8233032226562</v>
+        <v>865.8228759765625</v>
       </c>
       <c r="C6" t="n">
-        <v>624.1921997070312</v>
+        <v>623.8220825195312</v>
       </c>
       <c r="D6" t="n">
-        <v>906.8805541992188</v>
+        <v>906.70166015625</v>
       </c>
       <c r="E6" t="n">
-        <v>596.931640625</v>
+        <v>596.8387451171875</v>
       </c>
       <c r="F6" t="n">
-        <v>886.3519287109375</v>
+        <v>886.2622680664062</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>393.30908203125</v>
+        <v>393.2769470214844</v>
       </c>
       <c r="B7" t="n">
-        <v>872.4520874023438</v>
+        <v>872.4468383789062</v>
       </c>
       <c r="C7" t="n">
-        <v>451.9573059082031</v>
+        <v>451.6639404296875</v>
       </c>
       <c r="D7" t="n">
-        <v>909.9932861328125</v>
+        <v>909.7643432617188</v>
       </c>
       <c r="E7" t="n">
-        <v>422.6331787109375</v>
+        <v>422.470458984375</v>
       </c>
       <c r="F7" t="n">
-        <v>891.22265625</v>
+        <v>891.1055908203125</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>880.2062377929688</v>
+        <v>880.1839599609375</v>
       </c>
       <c r="C8" t="n">
-        <v>49.82165908813477</v>
+        <v>49.87091827392578</v>
       </c>
       <c r="D8" t="n">
-        <v>909.115966796875</v>
+        <v>909.1689453125</v>
       </c>
       <c r="E8" t="n">
-        <v>24.91082954406738</v>
+        <v>24.93545913696289</v>
       </c>
       <c r="F8" t="n">
-        <v>894.6611328125</v>
+        <v>894.6764526367188</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -687,22 +687,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>606.8344116210938</v>
+        <v>606.9660034179688</v>
       </c>
       <c r="B9" t="n">
-        <v>888.2819213867188</v>
+        <v>888.255126953125</v>
       </c>
       <c r="C9" t="n">
-        <v>665.1947631835938</v>
+        <v>665.1382446289062</v>
       </c>
       <c r="D9" t="n">
-        <v>922.0745239257812</v>
+        <v>922.0432739257812</v>
       </c>
       <c r="E9" t="n">
-        <v>636.0145874023438</v>
+        <v>636.0521240234375</v>
       </c>
       <c r="F9" t="n">
-        <v>905.17822265625</v>
+        <v>905.149169921875</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -717,22 +717,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>282.54345703125</v>
+        <v>282.5428466796875</v>
       </c>
       <c r="B10" t="n">
-        <v>890.0350952148438</v>
+        <v>890.0030517578125</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8845520019531</v>
+        <v>370.3439636230469</v>
       </c>
       <c r="D10" t="n">
-        <v>938.232421875</v>
+        <v>938.2711791992188</v>
       </c>
       <c r="E10" t="n">
-        <v>326.2139892578125</v>
+        <v>326.4434204101562</v>
       </c>
       <c r="F10" t="n">
-        <v>914.1337890625</v>
+        <v>914.1370849609375</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1041.769165039062</v>
+        <v>1041.552490234375</v>
       </c>
       <c r="B11" t="n">
-        <v>893.760009765625</v>
+        <v>893.8624267578125</v>
       </c>
       <c r="C11" t="n">
-        <v>1107.586303710938</v>
+        <v>1107.475952148438</v>
       </c>
       <c r="D11" t="n">
-        <v>971.1837158203125</v>
+        <v>971.3474731445312</v>
       </c>
       <c r="E11" t="n">
-        <v>1074.677734375</v>
+        <v>1074.51416015625</v>
       </c>
       <c r="F11" t="n">
-        <v>932.4718627929688</v>
+        <v>932.60498046875</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -777,22 +777,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>469.1011047363281</v>
+        <v>469.2897033691406</v>
       </c>
       <c r="B12" t="n">
-        <v>895.6988525390625</v>
+        <v>895.7730102539062</v>
       </c>
       <c r="C12" t="n">
-        <v>546.8217163085938</v>
+        <v>546.886962890625</v>
       </c>
       <c r="D12" t="n">
-        <v>972.0036010742188</v>
+        <v>971.5186767578125</v>
       </c>
       <c r="E12" t="n">
-        <v>507.96142578125</v>
+        <v>508.0883178710938</v>
       </c>
       <c r="F12" t="n">
-        <v>933.8511962890625</v>
+        <v>933.6458740234375</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>883.16015625</v>
+        <v>883.1153564453125</v>
       </c>
       <c r="C13" t="n">
-        <v>59.71627807617188</v>
+        <v>59.77805709838867</v>
       </c>
       <c r="D13" t="n">
-        <v>1002.81396484375</v>
+        <v>1003.261840820312</v>
       </c>
       <c r="E13" t="n">
-        <v>29.85813903808594</v>
+        <v>29.88902854919434</v>
       </c>
       <c r="F13" t="n">
-        <v>942.987060546875</v>
+        <v>943.1885986328125</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -837,22 +837,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>296.2256164550781</v>
+        <v>296.4573974609375</v>
       </c>
       <c r="B14" t="n">
-        <v>915.3021850585938</v>
+        <v>915.25732421875</v>
       </c>
       <c r="C14" t="n">
-        <v>396.8410949707031</v>
+        <v>396.7286987304688</v>
       </c>
       <c r="D14" t="n">
-        <v>974.47900390625</v>
+        <v>974.433349609375</v>
       </c>
       <c r="E14" t="n">
-        <v>346.5333557128906</v>
+        <v>346.5930480957031</v>
       </c>
       <c r="F14" t="n">
-        <v>944.890625</v>
+        <v>944.8453369140625</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -867,22 +867,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1128.222900390625</v>
+        <v>1128.359497070312</v>
       </c>
       <c r="B15" t="n">
-        <v>875.4813842773438</v>
+        <v>875.4825439453125</v>
       </c>
       <c r="C15" t="n">
-        <v>1199.986938476562</v>
+        <v>1199.976806640625</v>
       </c>
       <c r="D15" t="n">
-        <v>1027.972900390625</v>
+        <v>1027.637939453125</v>
       </c>
       <c r="E15" t="n">
-        <v>1164.10498046875</v>
+        <v>1164.168212890625</v>
       </c>
       <c r="F15" t="n">
-        <v>951.7271728515625</v>
+        <v>951.5602416992188</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -897,22 +897,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>162.7140960693359</v>
+        <v>162.6407928466797</v>
       </c>
       <c r="B16" t="n">
-        <v>902.7239990234375</v>
+        <v>902.658203125</v>
       </c>
       <c r="C16" t="n">
-        <v>266.2832641601562</v>
+        <v>266.446044921875</v>
       </c>
       <c r="D16" t="n">
-        <v>1008.778503417969</v>
+        <v>1008.529479980469</v>
       </c>
       <c r="E16" t="n">
-        <v>214.4986877441406</v>
+        <v>214.5434265136719</v>
       </c>
       <c r="F16" t="n">
-        <v>955.751220703125</v>
+        <v>955.5938720703125</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -927,22 +927,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>295.5342102050781</v>
+        <v>295.5644836425781</v>
       </c>
       <c r="B17" t="n">
-        <v>927.41455078125</v>
+        <v>927.0652465820312</v>
       </c>
       <c r="C17" t="n">
-        <v>414.7590637207031</v>
+        <v>414.4645690917969</v>
       </c>
       <c r="D17" t="n">
-        <v>1025.836791992188</v>
+        <v>1026.077880859375</v>
       </c>
       <c r="E17" t="n">
-        <v>355.1466369628906</v>
+        <v>355.0145263671875</v>
       </c>
       <c r="F17" t="n">
-        <v>976.6256713867188</v>
+        <v>976.571533203125</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -957,22 +957,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>323.3152770996094</v>
+        <v>323.1535949707031</v>
       </c>
       <c r="B18" t="n">
-        <v>959.529541015625</v>
+        <v>959.4367065429688</v>
       </c>
       <c r="C18" t="n">
-        <v>435.2908325195312</v>
+        <v>435.3758239746094</v>
       </c>
       <c r="D18" t="n">
-        <v>1056.8505859375</v>
+        <v>1058.122314453125</v>
       </c>
       <c r="E18" t="n">
-        <v>379.3030395507812</v>
+        <v>379.2647094726562</v>
       </c>
       <c r="F18" t="n">
-        <v>1008.190063476562</v>
+        <v>1008.779541015625</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -987,22 +987,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>24.84020233154297</v>
+        <v>23.5477352142334</v>
       </c>
       <c r="B19" t="n">
-        <v>978.2549438476562</v>
+        <v>978.2992553710938</v>
       </c>
       <c r="C19" t="n">
-        <v>194.1983184814453</v>
+        <v>194.0516967773438</v>
       </c>
       <c r="D19" t="n">
-        <v>1057.803833007812</v>
+        <v>1058.048583984375</v>
       </c>
       <c r="E19" t="n">
-        <v>109.5192565917969</v>
+        <v>108.7997131347656</v>
       </c>
       <c r="F19" t="n">
-        <v>1018.029418945312</v>
+        <v>1018.173950195312</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1017,22 +1017,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>330.1815490722656</v>
+        <v>329.1875305175781</v>
       </c>
       <c r="B20" t="n">
-        <v>971.1322021484375</v>
+        <v>969.5586547851562</v>
       </c>
       <c r="C20" t="n">
-        <v>514.3833618164062</v>
+        <v>514.8870849609375</v>
       </c>
       <c r="D20" t="n">
-        <v>1116.107055664062</v>
+        <v>1116.099609375</v>
       </c>
       <c r="E20" t="n">
-        <v>422.282470703125</v>
+        <v>422.0372924804688</v>
       </c>
       <c r="F20" t="n">
-        <v>1043.61962890625</v>
+        <v>1042.8291015625</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1047,22 +1047,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>503.9073181152344</v>
+        <v>504.0962524414062</v>
       </c>
       <c r="B21" t="n">
-        <v>1023.399169921875</v>
+        <v>1023.485778808594</v>
       </c>
       <c r="C21" t="n">
-        <v>655.418212890625</v>
+        <v>655.3440551757812</v>
       </c>
       <c r="D21" t="n">
-        <v>1137.9033203125</v>
+        <v>1137.594604492188</v>
       </c>
       <c r="E21" t="n">
-        <v>579.6627807617188</v>
+        <v>579.7201538085938</v>
       </c>
       <c r="F21" t="n">
-        <v>1080.651245117188</v>
+        <v>1080.540161132812</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1077,22 +1077,22 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>285.450439453125</v>
+        <v>197.1974182128906</v>
       </c>
       <c r="B22" t="n">
-        <v>1001.968933105469</v>
+        <v>1070.221435546875</v>
       </c>
       <c r="C22" t="n">
-        <v>461.6548156738281</v>
+        <v>464.521240234375</v>
       </c>
       <c r="D22" t="n">
-        <v>1214.99072265625</v>
+        <v>1252.825927734375</v>
       </c>
       <c r="E22" t="n">
-        <v>373.5526123046875</v>
+        <v>330.8593139648438</v>
       </c>
       <c r="F22" t="n">
-        <v>1108.479858398438</v>
+        <v>1161.523681640625</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1107,22 +1107,22 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>200.3613586425781</v>
+        <v>69.12090301513672</v>
       </c>
       <c r="B23" t="n">
-        <v>1070.221435546875</v>
+        <v>1071.439819335938</v>
       </c>
       <c r="C23" t="n">
-        <v>464.0840454101562</v>
+        <v>277.3356323242188</v>
       </c>
       <c r="D23" t="n">
-        <v>1251.819946289062</v>
+        <v>1262.021362304688</v>
       </c>
       <c r="E23" t="n">
-        <v>332.2227172851562</v>
+        <v>173.228271484375</v>
       </c>
       <c r="F23" t="n">
-        <v>1161.020751953125</v>
+        <v>1166.730590820312</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1137,22 +1137,22 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>71.45932006835938</v>
+        <v>896.547607421875</v>
       </c>
       <c r="B24" t="n">
-        <v>1071.805419921875</v>
+        <v>1104.407836914062</v>
       </c>
       <c r="C24" t="n">
-        <v>276.8611450195312</v>
+        <v>988.3171997070312</v>
       </c>
       <c r="D24" t="n">
-        <v>1262.457641601562</v>
+        <v>1282.202392578125</v>
       </c>
       <c r="E24" t="n">
-        <v>174.1602325439453</v>
+        <v>942.432373046875</v>
       </c>
       <c r="F24" t="n">
-        <v>1167.131591796875</v>
+        <v>1193.30517578125</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1167,22 +1167,22 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>896.5579223632812</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1104.325317382812</v>
+        <v>1147.7705078125</v>
       </c>
       <c r="C25" t="n">
-        <v>988.41796875</v>
+        <v>182.0941162109375</v>
       </c>
       <c r="D25" t="n">
-        <v>1282.54052734375</v>
+        <v>1324.301635742188</v>
       </c>
       <c r="E25" t="n">
-        <v>942.4879150390625</v>
+        <v>91.04705810546875</v>
       </c>
       <c r="F25" t="n">
-        <v>1193.432861328125</v>
+        <v>1236.0361328125</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1190,36 +1190,6 @@
         </is>
       </c>
       <c r="H25" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>0</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1147.82275390625</v>
-      </c>
-      <c r="C26" t="n">
-        <v>182.1915740966797</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1324.378295898438</v>
-      </c>
-      <c r="E26" t="n">
-        <v>91.09578704833984</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1236.1005859375</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Seat 25</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
         <is>
           <t>Empty</t>
         </is>
